--- a/Data/kegg_pathway.xlsx
+++ b/Data/kegg_pathway.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F504CBCB-2330-AF41-92D5-1DC3132A8929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C8B6F-9C7D-A34A-8C22-3E95B51F79CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8940" yWindow="460" windowWidth="23340" windowHeight="17820" xr2:uid="{C3042967-456E-1C4D-B43F-10BB0070173B}"/>
   </bookViews>
@@ -8289,10 +8289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6F91FE-59DC-1D4B-AECE-0E56A6F615CD}">
-  <dimension ref="A1:D4864"/>
+  <dimension ref="A1:C4864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8300,18 +8300,18 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2630</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -47217,7 +47217,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{9C9C0D31-428E-0E40-9C2F-2EA31405E662}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{9C9C0D31-428E-0E40-9C2F-2EA31405E662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/kegg_pathway.xlsx
+++ b/Data/kegg_pathway.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C8B6F-9C7D-A34A-8C22-3E95B51F79CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55EAC6-6D3E-2841-8CC4-C14E4DF06138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="460" windowWidth="23340" windowHeight="17820" xr2:uid="{C3042967-456E-1C4D-B43F-10BB0070173B}"/>
+    <workbookView xWindow="4360" yWindow="460" windowWidth="23340" windowHeight="17540" activeTab="2" xr2:uid="{C3042967-456E-1C4D-B43F-10BB0070173B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ETC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9960" uniqueCount="2631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10034" uniqueCount="2705">
   <si>
     <t>path:sce00010</t>
   </si>
@@ -7927,6 +7928,228 @@
   </si>
   <si>
     <t>http://rest.kegg.jp/link/sce/pathway</t>
+  </si>
+  <si>
+    <t>Q0045</t>
+  </si>
+  <si>
+    <t>Q0080</t>
+  </si>
+  <si>
+    <t>Q0085</t>
+  </si>
+  <si>
+    <t>Q0105</t>
+  </si>
+  <si>
+    <t>Q0110</t>
+  </si>
+  <si>
+    <t>Q0115</t>
+  </si>
+  <si>
+    <t>Q0120</t>
+  </si>
+  <si>
+    <t>Q0130</t>
+  </si>
+  <si>
+    <t>Q0250</t>
+  </si>
+  <si>
+    <t>Q0275</t>
+  </si>
+  <si>
+    <t>YBL045C</t>
+  </si>
+  <si>
+    <t>YBL099W</t>
+  </si>
+  <si>
+    <t>YBR011C</t>
+  </si>
+  <si>
+    <t>YBR039W</t>
+  </si>
+  <si>
+    <t>YBR127C</t>
+  </si>
+  <si>
+    <t>YCL005W-A</t>
+  </si>
+  <si>
+    <t>YDL004W</t>
+  </si>
+  <si>
+    <t>YDL067C</t>
+  </si>
+  <si>
+    <t>YDL185W</t>
+  </si>
+  <si>
+    <t>YDR178W</t>
+  </si>
+  <si>
+    <t>YDR298C</t>
+  </si>
+  <si>
+    <t>YDR322C-A</t>
+  </si>
+  <si>
+    <t>YDR377W</t>
+  </si>
+  <si>
+    <t>YDR529C</t>
+  </si>
+  <si>
+    <t>YEL024W</t>
+  </si>
+  <si>
+    <t>YEL027W</t>
+  </si>
+  <si>
+    <t>YEL051W</t>
+  </si>
+  <si>
+    <t>YER141W</t>
+  </si>
+  <si>
+    <t>YFR033C</t>
+  </si>
+  <si>
+    <t>YGL008C</t>
+  </si>
+  <si>
+    <t>YGL187C</t>
+  </si>
+  <si>
+    <t>YGL191W</t>
+  </si>
+  <si>
+    <t>YGR020C</t>
+  </si>
+  <si>
+    <t>YGR183C</t>
+  </si>
+  <si>
+    <t>YHR001W-A</t>
+  </si>
+  <si>
+    <t>YHR026W</t>
+  </si>
+  <si>
+    <t>YHR039C-A</t>
+  </si>
+  <si>
+    <t>YHR051W</t>
+  </si>
+  <si>
+    <t>YIL111W</t>
+  </si>
+  <si>
+    <t>YJL045W</t>
+  </si>
+  <si>
+    <t>YJL166W</t>
+  </si>
+  <si>
+    <t>YJR121W</t>
+  </si>
+  <si>
+    <t>YKL016C</t>
+  </si>
+  <si>
+    <t>YKL080W</t>
+  </si>
+  <si>
+    <t>YKL141W</t>
+  </si>
+  <si>
+    <t>YKL148C</t>
+  </si>
+  <si>
+    <t>YKL192C</t>
+  </si>
+  <si>
+    <t>YLL009C</t>
+  </si>
+  <si>
+    <t>YLL041C</t>
+  </si>
+  <si>
+    <t>YLR038C</t>
+  </si>
+  <si>
+    <t>YLR164W</t>
+  </si>
+  <si>
+    <t>YLR295C</t>
+  </si>
+  <si>
+    <t>YLR395C</t>
+  </si>
+  <si>
+    <t>YLR447C</t>
+  </si>
+  <si>
+    <t>YML081C-A</t>
+  </si>
+  <si>
+    <t>YMR054W</t>
+  </si>
+  <si>
+    <t>YMR118C</t>
+  </si>
+  <si>
+    <t>YMR256C</t>
+  </si>
+  <si>
+    <t>YMR267W</t>
+  </si>
+  <si>
+    <t>YNL052W</t>
+  </si>
+  <si>
+    <t>YOL077W-A</t>
+  </si>
+  <si>
+    <t>YOR020W-A</t>
+  </si>
+  <si>
+    <t>YOR065W</t>
+  </si>
+  <si>
+    <t>YOR270C</t>
+  </si>
+  <si>
+    <t>YOR332W</t>
+  </si>
+  <si>
+    <t>YPL036W</t>
+  </si>
+  <si>
+    <t>YPL078C</t>
+  </si>
+  <si>
+    <t>YPL132W</t>
+  </si>
+  <si>
+    <t>YPL172C</t>
+  </si>
+  <si>
+    <t>YPL234C</t>
+  </si>
+  <si>
+    <t>YPL271W</t>
+  </si>
+  <si>
+    <t>YPR020W</t>
+  </si>
+  <si>
+    <t>YPR036W</t>
+  </si>
+  <si>
+    <t>YPR191W</t>
   </si>
 </sst>
 </file>
@@ -8291,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6F91FE-59DC-1D4B-AECE-0E56A6F615CD}">
   <dimension ref="A1:C4864"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242:B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47216,6 +47439,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B4864">
+    <sortCondition ref="A1:A4864"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{9C9C0D31-428E-0E40-9C2F-2EA31405E662}"/>
   </hyperlinks>
@@ -47228,7 +47454,7 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48166,4 +48392,389 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA7D732-BEA5-C340-9B65-775C9AAC3045}">
+  <dimension ref="A1:A74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>